--- a/useful sites.xlsx
+++ b/useful sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resources\Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E1373-9B99-4331-90AB-EFABBDC8B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA655BA4-EE94-4D31-9664-8CCA6DAA29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="13020" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -67,13 +67,16 @@
   </si>
   <si>
     <t>https://githubachievements.com/</t>
+  </si>
+  <si>
+    <t>https://cvbuilder.standout-cv.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,14 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +121,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,8 +136,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,7 +423,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +517,9 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -546,7 +564,10 @@
       <c r="B16" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{99429A8C-A969-429A-B191-E00E65F31753}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/useful sites.xlsx
+++ b/useful sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resources\Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA655BA4-EE94-4D31-9664-8CCA6DAA29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D602F8E2-8CBF-4655-BE5E-917118046333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="13020" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>https://cvbuilder.standout-cv.com/</t>
+  </si>
+  <si>
+    <t>https://selfmadewebdesigner.com/how-to-make-a-winning-bid-on-upwork/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +106,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,12 +184,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,9 +223,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,15 +527,16 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="106.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,7 +546,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -452,6 +557,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -460,6 +566,7 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -468,7 +575,7 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -479,7 +586,7 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -490,7 +597,7 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -512,6 +619,7 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -525,7 +633,9 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">

--- a/useful sites.xlsx
+++ b/useful sites.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resources\Google Drive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D602F8E2-8CBF-4655-BE5E-917118046333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -33,6 +22,9 @@
     <t>site</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>https://www.adcisolutions.com/knowledge/web-development-methodologies-and-approaches</t>
   </si>
   <si>
@@ -42,27 +34,24 @@
     <t>https://www.wappalyzer.com/</t>
   </si>
   <si>
+    <t>website analyzer</t>
+  </si>
+  <si>
     <t>https://logomakr.com/</t>
   </si>
   <si>
+    <t>logo maker</t>
+  </si>
+  <si>
     <t>https://simplelogin.io</t>
   </si>
   <si>
+    <t>several emails from one eamil</t>
+  </si>
+  <si>
     <t>https://vault.bitwarden.com/#/vault</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>website analyzer</t>
-  </si>
-  <si>
-    <t>logo maker</t>
-  </si>
-  <si>
-    <t>several emails from one eamil</t>
-  </si>
-  <si>
     <t>online pwd service</t>
   </si>
   <si>
@@ -73,77 +62,212 @@
   </si>
   <si>
     <t>https://selfmadewebdesigner.com/how-to-make-a-winning-bid-on-upwork/</t>
+  </si>
+  <si>
+    <t>https://felixmerchant.com/</t>
+  </si>
+  <si>
+    <t>sms service</t>
+  </si>
+  <si>
+    <t>https://sms-activate.guru/en</t>
+  </si>
+  <si>
+    <t>https://smspva.com/</t>
+  </si>
+  <si>
+    <t>https://www.bitrefill.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,31 +276,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,15 +490,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -217,45 +717,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="25" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="28" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -304,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -339,7 +877,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -513,123 +1051,118 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="106.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="1"/>
+    <col min="2" max="2" width="106.141666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1416666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="15" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" ht="15" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -637,37 +1170,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -675,9 +1225,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{99429A8C-A969-429A-B191-E00E65F31753}"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://cvbuilder.standout-cv.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/useful sites.xlsx
+++ b/useful sites.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>https://www.bitrefill.com/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/viacheslav-salenko-8431812b1/</t>
   </si>
 </sst>
 </file>
@@ -84,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +157,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,22 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,32 +218,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +239,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -242,32 +262,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,25 +302,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,61 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,67 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,17 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -529,8 +508,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,154 +563,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1050,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1215,7 +1205,9 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">

--- a/useful sites.xlsx
+++ b/useful sites.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4143C28D-F065-4B11-BEFF-4129989932CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -80,36 +86,42 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/viacheslav-salenko-8431812b1/</t>
+  </si>
+  <si>
+    <t>https://www.browserstack.com/guide/top-web-developer-skills</t>
+  </si>
+  <si>
+    <t>https://laborx.com/</t>
+  </si>
+  <si>
+    <t>https://discadia.com/</t>
+  </si>
+  <si>
+    <t>https://servers.fivem.net/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,7 +133,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,21 +141,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,119 +163,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,164 +205,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -480,224 +229,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -707,83 +247,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="25" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="32" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="28" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="7">
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1041,25 +543,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="1"/>
-    <col min="2" max="2" width="106.141666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1416666666667" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="106.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1073,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1082,7 +584,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" ht="15" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1091,7 +593,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" ht="15" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1102,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1113,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1124,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1144,7 +646,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1152,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1193,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1201,7 +703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1209,18 +711,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://cvbuilder.standout-cv.com/"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{E6030CA5-0CCD-48C2-828D-8BBB6097CFC9}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{78D1F28C-481D-4BF0-A2DC-CAE2B82F0BD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>